--- a/data/924/SZSE/SZSE Main Board - Daily.xlsx
+++ b/data/924/SZSE/SZSE Main Board - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IWU3"/>
+  <dimension ref="A1:IWY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33869,15 +33869,35 @@
       </c>
       <c r="IWS1" s="1" t="inlineStr">
         <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="IWT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+      <c r="IWU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="IWV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="IWW1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="IWT1" s="1" t="inlineStr">
+      <c r="IWX1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="IWU1" s="1" t="inlineStr">
+      <c r="IWY1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -53104,17 +53124,29 @@
       <c r="IWR2" t="n">
         <v>2181.09</v>
       </c>
-      <c r="IWS2" t="inlineStr">
+      <c r="IWS2" t="n">
+        <v>2236.74</v>
+      </c>
+      <c r="IWT2" t="n">
+        <v>2216.16</v>
+      </c>
+      <c r="IWU2" t="n">
+        <v>2226.44</v>
+      </c>
+      <c r="IWV2" t="n">
+        <v>2226.97</v>
+      </c>
+      <c r="IWW2" t="inlineStr">
         <is>
           <t>SZSEA</t>
         </is>
       </c>
-      <c r="IWT2" t="inlineStr">
+      <c r="IWX2" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IWU2" t="inlineStr">
+      <c r="IWY2" t="inlineStr">
         <is>
           <t>Index: 1994.10.04=100</t>
         </is>
@@ -72285,17 +72317,29 @@
       <c r="IWR3" t="n">
         <v>1037.9</v>
       </c>
-      <c r="IWS3" t="inlineStr">
+      <c r="IWS3" t="n">
+        <v>1049.78</v>
+      </c>
+      <c r="IWT3" t="n">
+        <v>1043.52</v>
+      </c>
+      <c r="IWU3" t="n">
+        <v>1059.71</v>
+      </c>
+      <c r="IWV3" t="n">
+        <v>1061.73</v>
+      </c>
+      <c r="IWW3" t="inlineStr">
         <is>
           <t>SZSEB</t>
         </is>
       </c>
-      <c r="IWT3" t="inlineStr">
+      <c r="IWX3" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IWU3" t="inlineStr">
+      <c r="IWY3" t="inlineStr">
         <is>
           <t>Index: 1992.02.28=100</t>
         </is>

--- a/data/924/SZSE/SZSE Main Board - Daily.xlsx
+++ b/data/924/SZSE/SZSE Main Board - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IWY3"/>
+  <dimension ref="A1:IXI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33889,15 +33889,65 @@
       </c>
       <c r="IWW1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="IWX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="IWY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="IWZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="IXA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
+        </is>
+      </c>
+      <c r="IXB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-14</t>
+        </is>
+      </c>
+      <c r="IXC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="IXD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+      <c r="IXE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="IXF1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-20</t>
+        </is>
+      </c>
+      <c r="IXG1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="IWX1" s="1" t="inlineStr">
+      <c r="IXH1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="IWY1" s="1" t="inlineStr">
+      <c r="IXI1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -53134,19 +53184,49 @@
         <v>2226.44</v>
       </c>
       <c r="IWV2" t="n">
-        <v>2226.97</v>
-      </c>
-      <c r="IWW2" t="inlineStr">
+        <v>2226.56</v>
+      </c>
+      <c r="IWW2" t="n">
+        <v>2184.24</v>
+      </c>
+      <c r="IWX2" t="n">
+        <v>2177.15</v>
+      </c>
+      <c r="IWY2" t="n">
+        <v>2104.57</v>
+      </c>
+      <c r="IWZ2" t="n">
+        <v>2142.7</v>
+      </c>
+      <c r="IXA2" t="n">
+        <v>2105.3</v>
+      </c>
+      <c r="IXB2" t="n">
+        <v>2128.63</v>
+      </c>
+      <c r="IXC2" t="n">
+        <v>2107.06</v>
+      </c>
+      <c r="IXD2" t="n">
+        <v>2116.11</v>
+      </c>
+      <c r="IXE2" t="n">
+        <v>2113.76</v>
+      </c>
+      <c r="IXF2" t="n">
+        <v>2077.48</v>
+      </c>
+      <c r="IXG2" t="inlineStr">
         <is>
           <t>SZSEA</t>
         </is>
       </c>
-      <c r="IWX2" t="inlineStr">
+      <c r="IXH2" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IWY2" t="inlineStr">
+      <c r="IXI2" t="inlineStr">
         <is>
           <t>Index: 1994.10.04=100</t>
         </is>
@@ -72327,19 +72407,49 @@
         <v>1059.71</v>
       </c>
       <c r="IWV3" t="n">
-        <v>1061.73</v>
-      </c>
-      <c r="IWW3" t="inlineStr">
+        <v>1068.81</v>
+      </c>
+      <c r="IWW3" t="n">
+        <v>1055.8</v>
+      </c>
+      <c r="IWX3" t="n">
+        <v>1057.25</v>
+      </c>
+      <c r="IWY3" t="n">
+        <v>1039.78</v>
+      </c>
+      <c r="IWZ3" t="n">
+        <v>1053.24</v>
+      </c>
+      <c r="IXA3" t="n">
+        <v>1050.09</v>
+      </c>
+      <c r="IXB3" t="n">
+        <v>1063.46</v>
+      </c>
+      <c r="IXC3" t="n">
+        <v>1056.13</v>
+      </c>
+      <c r="IXD3" t="n">
+        <v>1060.04</v>
+      </c>
+      <c r="IXE3" t="n">
+        <v>1062.24</v>
+      </c>
+      <c r="IXF3" t="n">
+        <v>1059.75</v>
+      </c>
+      <c r="IXG3" t="inlineStr">
         <is>
           <t>SZSEB</t>
         </is>
       </c>
-      <c r="IWX3" t="inlineStr">
+      <c r="IXH3" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="IWY3" t="inlineStr">
+      <c r="IXI3" t="inlineStr">
         <is>
           <t>Index: 1992.02.28=100</t>
         </is>
